--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1353757.572929122</v>
+        <v>1457937.207380194</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.1550917323862</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>83.41943806107248</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>23.45835703137407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.398536716038126</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>223.097395461442</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>84.22290965229026</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>189.1329927668882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>197.204009878858</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>56.48865491052348</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3621126050705</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>138.6444210303386</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.16281301712532</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>68.98225678327375</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>134.0367616438387</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>18.7084378797731</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>124.8808320771207</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>30.85302310518107</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>152.8697920431069</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3193,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>26.05480806223633</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410134</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>82.47290449300471</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462269</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.6604102493273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="H40" t="n">
-        <v>137.3021949834107</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>47.84205650382067</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>25.73194049497408</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>141.3831318263024</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X2" t="n">
-        <v>1987.713327533092</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>555.4774356872693</v>
+        <v>850.493580837645</v>
       </c>
       <c r="C4" t="n">
-        <v>386.5412527593625</v>
+        <v>681.5573979097381</v>
       </c>
       <c r="D4" t="n">
-        <v>236.4246133470267</v>
+        <v>531.4407584974024</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143257</v>
+        <v>383.5276649150093</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>236.6377174170989</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>68.93488079181787</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>68.93488079181787</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.259565728817</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="X4" t="n">
-        <v>776.2700148307995</v>
+        <v>1252.934624811415</v>
       </c>
       <c r="Y4" t="n">
-        <v>555.4774356872693</v>
+        <v>1032.142045667885</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3100.254917102663</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X5" t="n">
-        <v>1986.901740067214</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4650,16 +4652,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.5323442946291</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C7" t="n">
-        <v>507.5323442946291</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4762,13 +4764,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>689.1808091248688</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>689.1808091248688</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>689.1808091248688</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4802,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.979026139843</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>820.4128495803443</v>
+        <v>916.9565928129331</v>
       </c>
       <c r="C10" t="n">
-        <v>651.4766666524374</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>501.3600272401017</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>353.4469336577085</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>206.5569861597982</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658018</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658018</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>1450.843444452132</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="X10" t="n">
-        <v>1222.853893554114</v>
+        <v>1098.605057643173</v>
       </c>
       <c r="Y10" t="n">
-        <v>1002.061314410584</v>
+        <v>1098.605057643173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694706</v>
@@ -5063,28 +5065,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654478</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.50206557031</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>695.50206557031</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>695.50206557031</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408905</v>
@@ -5194,55 +5196,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,70 +5260,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,22 +5460,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
         <v>1501.108204237296</v>
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5750,28 +5752,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5829,7 +5831,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
@@ -5838,13 +5840,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7013164925216</v>
+        <v>478.4901340122882</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>311.2940347271681</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5911,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.183521551621</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000582</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>710.248605371872</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>3206.505799599952</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>3037.569616672045</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>2887.452977259709</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>2739.539883677316</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>2592.649936179406</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>3388.154264430192</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6479,22 +6481,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6536,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.53722908186</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153953</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159224</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398594</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196494</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990608</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953647</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912099</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,49 +6694,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.740023695907</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>2804.65264778894</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>2635.716464861033</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474266</v>
+        <v>2485.599825448698</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474266</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474266</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>3979.184900903575</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>3724.500412697688</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>3435.083242660728</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>3207.09369176271</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>2986.30111261918</v>
       </c>
     </row>
     <row r="35">
@@ -6929,43 +6931,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1889.844516861991</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2313.46766635706</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2546.729326731942</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>680.4481746984161</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>530.3315352860803</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036872</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057768</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057768</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,10 +7177,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7190,34 +7192,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C40" t="n">
-        <v>696.7084350851671</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D40" t="n">
-        <v>546.5917956728314</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E40" t="n">
-        <v>546.5917956728314</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F40" t="n">
-        <v>399.701848174921</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G40" t="n">
-        <v>232.5057488898009</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,19 +7496,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1366.386875345992</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>1918.296605585279</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2341.919755080347</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558405</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C43" t="n">
-        <v>2757.723669558405</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D43" t="n">
-        <v>2757.723669558405</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E43" t="n">
-        <v>2609.810575976011</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F43" t="n">
-        <v>2609.810575976011</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
         <v>2561.485266376193</v>
@@ -7591,28 +7593,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>4664.841293312761</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>4481.986458967665</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1901.695539989114</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.011051783227</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944385</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>66.73277020259221</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>217.5407415533172</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.257951202385158</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>134.6711151870878</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>99.26785128072112</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>139.4693302300325</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.45968844823074</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>84.77391660562313</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>25.74504007796097</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>61.40075786968299</v>
       </c>
       <c r="H40" t="n">
-        <v>2.992517862813145</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>117.6820817884482</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>40.64330621514761</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>144.8013425629417</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062538</v>
@@ -26338,22 +26340,22 @@
         <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="C4" t="n">
         <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
@@ -26436,7 +26438,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683037</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26522,46 +26524,46 @@
         <v>-1015711.479041991</v>
       </c>
       <c r="C6" t="n">
-        <v>313033.2666856019</v>
+        <v>313033.2666856021</v>
       </c>
       <c r="D6" t="n">
-        <v>313033.2666856023</v>
+        <v>313033.2666856021</v>
       </c>
       <c r="E6" t="n">
-        <v>64934.76902816124</v>
+        <v>64934.76902816107</v>
       </c>
       <c r="F6" t="n">
         <v>390347.2308355161</v>
       </c>
       <c r="G6" t="n">
+        <v>390347.2308355162</v>
+      </c>
+      <c r="H6" t="n">
+        <v>390347.2308355162</v>
+      </c>
+      <c r="I6" t="n">
         <v>390347.2308355161</v>
       </c>
-      <c r="H6" t="n">
-        <v>390347.2308355161</v>
-      </c>
-      <c r="I6" t="n">
-        <v>390347.2308355163</v>
-      </c>
       <c r="J6" t="n">
-        <v>172816.0284382387</v>
+        <v>172816.0284382388</v>
       </c>
       <c r="K6" t="n">
-        <v>390347.2308355162</v>
+        <v>390347.230835516</v>
       </c>
       <c r="L6" t="n">
         <v>390347.2308355161</v>
       </c>
       <c r="M6" t="n">
-        <v>305292.2029000045</v>
+        <v>305292.2029000042</v>
       </c>
       <c r="N6" t="n">
         <v>390347.2308355162</v>
       </c>
       <c r="O6" t="n">
+        <v>390347.2308355161</v>
+      </c>
+      <c r="P6" t="n">
         <v>390347.2308355162</v>
-      </c>
-      <c r="P6" t="n">
-        <v>390347.2308355161</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26811,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>147.5787499310944</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>286.3116626173966</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.9756056151951</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>93.95388369379997</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>27.89777649746</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>285.5081910261788</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>46.61145443660418</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>97.39000556970282</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>6.713960260762121</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>313.2424457679456</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.884708493557383</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27.38138722868962</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,10 +28067,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30034,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30159,7 +30161,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1.476844879432945e-12</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>441.0292693655523</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731359</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4622569139906</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>608.2694430035896</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>601.0567753070487</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>152.0754244981384</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34214,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>316.2462973459351</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>302.4748895856781</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>322.6208179396316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>469.7150632237154</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.7150632237154</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.395920534174421</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>176.2645232599136</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1457937.207380194</v>
+        <v>1453924.597366201</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.1550917323862</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>5.829022425352341</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.398536716038126</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>34.987230763697</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>78.961229153611</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>223.097395461442</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>120.6353666620237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>134.0389899623034</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>197.204009878858</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.3621126050705</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V16" t="n">
-        <v>185.4048731212358</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>146.1850499531015</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>68.98225678327375</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.0367616438387</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="23">
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>124.8808320771207</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>30.85302310518107</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,10 +2848,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>129.5380597272477</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>82.47290449300471</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>104.1233804225859</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>25.73194049497408</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>136.420795521365</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>246.4755938422903</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3319.717920169421</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>3066.187443443257</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2735.124556099686</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339056</v>
+        <v>2382.355900829572</v>
       </c>
       <c r="X2" t="n">
-        <v>2972.837166339056</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y2" t="n">
-        <v>2582.697834363244</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>850.493580837645</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>681.5573979097381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>531.4407584974024</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>383.5276649150093</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>236.6377174170989</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>68.93488079181787</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>68.93488079181787</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1891.953910953445</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1700.268026780272</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709432</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W4" t="n">
-        <v>1480.924175709432</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1252.934624811415</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1032.142045667885</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3100.254917102663</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2769.192029759092</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2769.192029759092</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2395.726271498012</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4658,40 +4658,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.3660221513992</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.0144869816389</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3126.409852034566</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3126.409852034566</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3126.409852034566</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>3126.409852034566</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>916.9565928129331</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.59460854119</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1098.605057643173</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1098.605057643173</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1501.108204237296</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5600,19 +5600,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687975</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408906</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1431.068022140585</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1203.078471242567</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.2858920990373</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5831,7 +5831,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
@@ -5840,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589157</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.345997432834</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>923.4098145049275</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>773.2931750925917</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>625.3800815101986</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>478.4901340122882</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>311.2940347271681</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304621</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.787041406604</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.994462263074</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6074,22 +6074,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.613315601761</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>888.6771326738537</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>738.560493261518</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>590.6473996791249</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>443.7574521812145</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1977.461080510508</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.043910473548</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.05435957553</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1239.261780432</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3206.505799599952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3037.569616672045</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2887.452977259709</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2739.539883677316</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2592.649936179406</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3388.154264430192</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6551,19 +6551,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.65264778894</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861033</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448698</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.184900903575</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.500412697688</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660728</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.09369176271</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.30111261918</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7031,13 +7031,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>680.4481746984161</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860803</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036872</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057768</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057768</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4664.841293312761</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4481.986458967665</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4262.384993990607</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4262.384993990607</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.396372297858</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V46" t="n">
-        <v>1723.711884091971</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V16" t="n">
-        <v>66.73277020259221</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>217.5407415533172</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>6.257951202385158</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>40.6433062151481</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>134.6711151870878</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823074</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>84.77391660562313</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>3.329716221310008</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>61.40075786968299</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>40.64330621514761</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>9.00025250156628</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>39.70888054695388</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651771</v>
-      </c>
       <c r="E2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="H2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="M2" t="n">
-        <v>504466.6248062535</v>
-      </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062537</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26524,46 +26524,46 @@
         <v>-1015711.479041991</v>
       </c>
       <c r="C6" t="n">
-        <v>313033.2666856021</v>
+        <v>313033.2666856019</v>
       </c>
       <c r="D6" t="n">
-        <v>313033.2666856021</v>
+        <v>313033.2666856019</v>
       </c>
       <c r="E6" t="n">
-        <v>64934.76902816107</v>
+        <v>64587.38977380407</v>
       </c>
       <c r="F6" t="n">
-        <v>390347.2308355161</v>
+        <v>389999.8515811591</v>
       </c>
       <c r="G6" t="n">
-        <v>390347.2308355162</v>
+        <v>389999.8515811592</v>
       </c>
       <c r="H6" t="n">
-        <v>390347.2308355162</v>
+        <v>389999.8515811592</v>
       </c>
       <c r="I6" t="n">
-        <v>390347.2308355161</v>
+        <v>389999.851581159</v>
       </c>
       <c r="J6" t="n">
-        <v>172816.0284382388</v>
+        <v>172468.6491838816</v>
       </c>
       <c r="K6" t="n">
-        <v>390347.230835516</v>
+        <v>389999.8515811592</v>
       </c>
       <c r="L6" t="n">
-        <v>390347.2308355161</v>
+        <v>389999.8515811592</v>
       </c>
       <c r="M6" t="n">
-        <v>305292.2029000042</v>
+        <v>304944.8236456474</v>
       </c>
       <c r="N6" t="n">
-        <v>390347.2308355162</v>
+        <v>389999.8515811592</v>
       </c>
       <c r="O6" t="n">
-        <v>390347.2308355161</v>
+        <v>389999.8515811592</v>
       </c>
       <c r="P6" t="n">
-        <v>390347.2308355162</v>
+        <v>389999.8515811593</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147.5787499310944</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>198.0889477142678</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>93.95388369379997</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>53.94492190635033</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>302.9691409186508</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>27.89777649746</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>46.61145443660418</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6.713960260762121</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.884708493557383</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30161,7 +30161,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.476844879432945e-12</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32320,10 +32320,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968503</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>431.3680753731359</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>338.1309585028985</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748321</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>297.3936679588056</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>206.7892464195652</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1453924.597366201</v>
+        <v>1455685.127668986</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283203</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10685950.03826802</v>
+        <v>10685950.03826801</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>398.5146692103796</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>5.829022425352341</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>34.987230763697</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>370.0648965483565</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>78.961229153611</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>52.07852635745694</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>134.0389899623034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>29.76498982117595</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145775</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>4.043187116398541</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766848</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.019807611471164</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>146.1850499531015</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.019807611472036</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>5.421623586788386</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>129.5380597272477</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>177.6965697803346</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>136.420795521365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>926.1215352571926</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3319.717920169421</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3066.187443443257</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2735.124556099686</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.355900829572</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1891.953910953445</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1700.268026780272</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1478.501411349798</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1478.501411349798</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.501411349798</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855438</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C5" t="n">
-        <v>1311.909787855438</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1311.909787855438</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>583.8261120459499</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>433.7094726336142</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>433.7094726336142</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>286.8195251357038</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>119.1166885104227</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040965</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>684.4520072430311</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>515.5158243151242</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>365.3991849027884</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>217.4860913203953</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>70.59614382248495</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>866.1004720732708</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5108,34 +5108,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245718</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403302</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,43 +5287,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>411.963121559761</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>411.963121559761</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>265.0731740618506</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673058</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5955,7 +5955,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6129,16 +6129,16 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6457,34 +6457,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>99.29305050937427</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2267.47159895366</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2267.47159895366</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7560,7 +7560,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1089.57599612053</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>920.6398131926233</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>770.5231737802875</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>622.6100801978944</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>2264.108249235165</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>2009.423761029278</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1720.006590992317</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1492.0170400943</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1271.22446095077</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.40333084624648</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>136.2749052347527</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>3.329716221310008</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.00025250156628</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.803951503</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.803951503</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="13">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.1061651772</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651769</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062534</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062537</v>
@@ -26340,22 +26340,22 @@
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818183</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26524,46 +26524,46 @@
         <v>-1015711.479041991</v>
       </c>
       <c r="C6" t="n">
-        <v>313033.2666856019</v>
+        <v>313033.2666856025</v>
       </c>
       <c r="D6" t="n">
         <v>313033.2666856019</v>
       </c>
       <c r="E6" t="n">
-        <v>64587.38977380407</v>
+        <v>64900.03110272542</v>
       </c>
       <c r="F6" t="n">
-        <v>389999.8515811591</v>
+        <v>390312.4929100803</v>
       </c>
       <c r="G6" t="n">
-        <v>389999.8515811592</v>
+        <v>390312.4929100802</v>
       </c>
       <c r="H6" t="n">
-        <v>389999.8515811592</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="I6" t="n">
-        <v>389999.851581159</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="J6" t="n">
-        <v>172468.6491838816</v>
+        <v>172781.2905128029</v>
       </c>
       <c r="K6" t="n">
-        <v>389999.8515811592</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="L6" t="n">
-        <v>389999.8515811592</v>
+        <v>390312.4929100803</v>
       </c>
       <c r="M6" t="n">
-        <v>304944.8236456474</v>
+        <v>305257.4649745687</v>
       </c>
       <c r="N6" t="n">
-        <v>389999.8515811592</v>
+        <v>390312.4929100805</v>
       </c>
       <c r="O6" t="n">
-        <v>389999.8515811592</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="P6" t="n">
-        <v>389999.8515811593</v>
+        <v>390312.4929100804</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.361376531331814</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>198.0889477142678</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>83.3252282894418</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53.94492190635033</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>12.66894511512407</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>302.9691409186508</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>92.67648855686383</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>118.0986533615246</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>324.918051799507</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.4435131414761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>161.9826211426297</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>173.820032554337</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982905</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.97859357997802</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762722</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
